--- a/산출물/요구사항정의서_유선영.xlsx
+++ b/산출물/요구사항정의서_유선영.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\synchronization-master\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7647F49-A00B-4334-8D52-BAD211CDC07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="326"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의!$A$3:$U$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요구사항정의!$B$1:$S$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의!$A$3:$U$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요구사항정의!$B$1:$S$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">요구사항정의!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="116">
   <si>
     <t xml:space="preserve"> - 정상인증 요청이 리스트 형식으로 페이징되어 10개씩 나누어 출력되며
     지급, 지급완료 탭으로 나누어 조회됨 
@@ -33,14 +45,6 @@
     누를 경우 지급완료로 변경되며 지급완료 탭의 최상단으로 옮겨짐 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - 검색버튼을 누르면 검색창이 크게 출력되며 selectBox에 지역을 선택하고 
-    검색하면 지역에 해당하는 산이 list형식으로 출력됨
-   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
-      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
- - 출력시에 대표이미지 한 개와 산의 명칭 산의 추천수가 같이 출력되며 
-    paging으로 10개씩 나누어 출력함</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 메인화면에서 검색 버튼을 누르고 검색창이 열리면 지역명을 선택하여 검색
    하면 해당되는 정보를 가져오도록 함
   ㆍ지역을 검색시 해당 지역의 산의 대표이미지 1개와 산의 이름 산의 추천이 
@@ -61,9 +65,6 @@
   </si>
   <si>
     <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>산정보 상세조회</t>
   </si>
   <si>
     <t>참여할 모임 조회</t>
@@ -159,13 +160,6 @@
     조회</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 검색버튼을 누르면 검색창이 크게 출력되며 selectBox에 지역을 선택하고 
-    산을 검색하면 지역에 해당하는 산이 출력됨
-   ㆍ지역을 선택하지 않고 산이름을 검색 하여도 산에대한 정보가 출력됨
- - 출력시에 대표이미지 한 개와 산의 명칭 산의 추천수가 같이 출력됨
-   (단일출력)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 친구요청 탭을 눌러 친구요청을 조회할 수 있음
    ㆍdataTable.js를 사용하여 조회하며 목록은 10개씩 보여줌
  - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
@@ -181,11 +175,6 @@
   <si>
     <t xml:space="preserve"> - 모집 게시판을 조회(페이징 적용하여 목록은 10개로 나누어 보여줌)
  - 대표이미지 1개와, 제목, 조회수를 표시</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 검색된 데이터중 산의 이미지나 산의 명칭을 클릭 하면 산의 상세한 정보가 
-    출력됨
-   ㆍ정보(3장의 이미지와, 산의 높이, 산의 상세설명)</t>
   </si>
   <si>
     <t xml:space="preserve"> - 검색기능을 통해서 친구 등록을 할 수 있음
@@ -209,9 +198,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - 검색된 데이터중 선택된 산의 상세한 정보가 출력됨</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 정상을 인증한 회원들의 요청을 확인하고 처리함</t>
   </si>
   <si>
@@ -276,9 +262,6 @@
     <t>게시물 조회</t>
   </si>
   <si>
-    <t>S-001</t>
-  </si>
-  <si>
     <t>P-001</t>
   </si>
   <si>
@@ -288,9 +271,6 @@
     <t>B-001</t>
   </si>
   <si>
-    <t>지역 검색</t>
-  </si>
-  <si>
     <t>개인정보 수정</t>
   </si>
   <si>
@@ -309,9 +289,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>산 검색</t>
-  </si>
-  <si>
     <t>뱃지 조회</t>
   </si>
   <si>
@@ -328,9 +305,6 @@
   </si>
   <si>
     <t>가정사항</t>
-  </si>
-  <si>
-    <t>산 조회</t>
   </si>
   <si>
     <t>중요도*</t>
@@ -466,6 +440,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
            </t>
@@ -485,6 +461,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -504,6 +482,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>ㆍ산 클릭시</t>
     </r>
@@ -522,6 +502,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
   </t>
@@ -542,6 +524,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">ㆍ지도는 </t>
     </r>
@@ -560,6 +544,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>를 통하여 표시함 
  - 게시글 작성
@@ -569,11 +555,40 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> - 오른쪽 지도에 전국의 행정구역이 출력되며 지역을 마우스로 클릭하여 선택 
+    할 수 있고 지역을 선택시 지역에 해당하는 산의 list가 출력됨
+   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
+      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
+ - 출력시에 paging으로 10개씩 나누어 출력함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - list중 산을 선택하면 산에 대한 사진과 등산로가 출력되게 되며 산을 선택시
+    산 선택 input 태그에 등록됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 선택</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 선택</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
   </numFmts>
@@ -877,15 +892,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -897,16 +912,16 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -918,185 +933,167 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,7 +1129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1"/>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noRot="1"/>
         </xdr:cNvSpPr>
@@ -1209,7 +1212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Text Box 2"/>
+        <xdr:cNvPr id="1026" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noRot="1"/>
         </xdr:cNvSpPr>
@@ -1586,12 +1595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1621,1282 +1630,1261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="26" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="24"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" s="9" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+      <c r="A6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="32"/>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="E6" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="63"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+    </row>
+    <row r="8" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="63"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="63"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="63"/>
+      <c r="B11" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" s="63"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="63"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:24" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+    </row>
+    <row r="16" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="63"/>
+      <c r="B16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="63"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="E18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="34" t="s">
+      <c r="E21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="36" t="s">
+      <c r="I21" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+    </row>
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="63"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="F22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="J22" s="37"/>
+      <c r="K22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+    </row>
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="38" t="s">
+      <c r="E26" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A27" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+    </row>
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="63"/>
+      <c r="B28" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+    </row>
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="64"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-    </row>
-    <row r="5" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-    </row>
-    <row r="6" spans="1:24" s="18" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-    </row>
-    <row r="7" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-    </row>
-    <row r="8" spans="1:24" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="E29" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-    </row>
-    <row r="9" spans="1:24" s="18" customFormat="1" ht="162" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-    </row>
-    <row r="10" spans="1:24" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-    </row>
-    <row r="11" spans="1:24" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-    </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-    </row>
-    <row r="13" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-    </row>
-    <row r="15" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-    </row>
-    <row r="16" spans="1:24" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-    </row>
-    <row r="17" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-    </row>
-    <row r="19" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-    </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-    </row>
-    <row r="21" spans="1:24" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-    </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-    </row>
-    <row r="23" spans="1:24" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-    </row>
-    <row r="24" spans="1:24" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-    </row>
-    <row r="25" spans="1:24" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-    </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-    </row>
-    <row r="27" spans="1:24" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-    </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-    </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
+      <c r="H29" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -2917,7 +2905,7 @@
     <row r="32" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
@@ -2938,7 +2926,7 @@
     <row r="33" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
@@ -2959,7 +2947,7 @@
     <row r="34" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
@@ -2980,7 +2968,7 @@
     <row r="35" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
@@ -3001,7 +2989,7 @@
     <row r="36" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
@@ -3022,7 +3010,7 @@
     <row r="37" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
@@ -3043,7 +3031,7 @@
     <row r="38" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
@@ -3880,26 +3868,21 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
+    <row r="78" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="H78" s="13"/>
+      <c r="J78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
@@ -4205,51 +4188,35 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="H98" s="13"/>
-      <c r="J98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:U4"/>
+  <autoFilter ref="A3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B17:B26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"식별,정의.협의중,정의.확정요청,정의.확정,정의.변경요청,정의.변경,제외"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"필수,조건,선택"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"현행,개선,신규"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Web,Mgr,Agt,Web/Mgr/Agt,Web/Mgr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K29" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"기능,인터페이스,적합,안전,보안및기밀,운용환경,컴퓨터자원,운용요원,교육훈련,운영유지지원,패키징,기타"</formula1>
     </dataValidation>
   </dataValidations>

--- a/산출물/요구사항정의서_유선영.xlsx
+++ b/산출물/요구사항정의서_유선영.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\synchronization-master\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crown\Desktop\mountain_project\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7647F49-A00B-4334-8D52-BAD211CDC07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA4B83-8441-472D-AD3A-B71B9AAD10A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
   <si>
     <t xml:space="preserve"> - 정상인증 요청이 리스트 형식으로 페이징되어 10개씩 나누어 출력되며
     지급, 지급완료 탭으로 나누어 조회됨 
@@ -45,15 +45,6 @@
     누를 경우 지급완료로 변경되며 지급완료 탭의 최상단으로 옮겨짐 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - 메인화면에서 검색 버튼을 누르고 검색창이 열리면 지역명을 선택하여 검색
-   하면 해당되는 정보를 가져오도록 함
-  ㆍ지역을 검색시 해당 지역의 산의 대표이미지 1개와 산의 이름 산의 추천이 
-     뜨게함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 참여했던 모임을 조회함</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 페이징과 검색이 가능하게 설계함
  - 대표이미지와, 제목, 조회수를 표시함</t>
   </si>
@@ -110,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 이미지를 변경할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 개인정보를 변경할 수 있음</t>
   </si>
   <si>
     <t xml:space="preserve"> - 이미지와 게시물을 조회할 수 있음
@@ -120,36 +108,381 @@
  - 타일 형태로 조회되며 10개씩 페이징 처리함</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 게시물 조회는 10개씩 끊어서 더보기로 10개씩 추가로 보여줌
+    <t xml:space="preserve"> - 친구요청 탭을 눌러 친구요청을 조회할 수 있음
+   ㆍdataTable.js를 사용하여 조회하며 목록은 10개씩 보여줌
+ - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
+   ㆍ수락 버튼을 클릭시 친구목록 최상위에 추가 됨
+   ㆍ거절 버튼을 클릭시 친구요청이 거절 됨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 우측 상단 알림 아이콘을 클릭하여 알림을 조회할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 친구요청 수락 목록을 조회 후 요청을 수락 할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모집 게시판을 조회(페이징 적용하여 목록은 10개로 나누어 보여줌)
+ - 대표이미지 1개와, 제목, 조회수를 표시</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 검색기능을 통해서 친구 등록을 할 수 있음
+ - 검색조건은 이름, 아이디에 맞는 회원을 조회하며 동명이인인 경우 아이디
+    로 구분하여 조회됨
+ - 조회된 회원의 오른쪽의 친구 등록 버튼을 눌러 친구 등록을 할 수 있으며
+    해당 회원이 수락할 경우 친구가 됨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 정상인증탭 에서는 본인이 정상에서 찍은 명산의 비석을 업로드하면 관리
+    자가 파일을 확인 할 수 있게 되고 관리자가 파일을 확인 후 사진이 맞다면 
+    뱃지를 지급함
+ - 정상인증 현황탭에서는 관리자가 파일을 확인후 처리여부를 확인할 수 
+    있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 정상인증 페이지에서는 정상인증, 정상인증현황 2개의 탭으로 구성됨
+ - 본인이 정상에서 찍은 명산의 비석과 자신의 사진을 업로드하면 관리자가 
+    확인 후에 뱃지를 지급 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 정상을 인증한 회원들의 요청을 확인하고 처리함</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에는 수정이 가능함</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에는 삭제가 가능함</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로그아웃 버튼을 이용하여 로그아웃 할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로그아웃 버튼을 사용하여 로그아웃을 할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 친구검색을 하여 친구등록 요청을 보낼 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림조회는 10개로 페이징처리 됨
+ - 작성자, 제목이 조회됨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시물인 경우에만 삭제가 가능하게 처리함 
+   ㆍ인증여부는 springSecurity사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시물인 경우에만 수정이 가능하게 처리함 
+   ㆍ인증여부는 springSecurity사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에만 삭제가 가능하게 처리함 
+   ㆍ인증여부는 springSecurity사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 프로필 이미지를 변경할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시물은 수정이 가능함</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시물은 삭제가 가능함</t>
+  </si>
+  <si>
+    <t>C-002</t>
+  </si>
+  <si>
+    <t>순위 조회</t>
+  </si>
+  <si>
+    <t>게시물 등록</t>
+  </si>
+  <si>
+    <t>프로필 수정</t>
+  </si>
+  <si>
+    <t>알람 조회</t>
+  </si>
+  <si>
+    <t>게시물 수정</t>
+  </si>
+  <si>
+    <t>게시물 조회</t>
+  </si>
+  <si>
+    <t>P-001</t>
+  </si>
+  <si>
+    <t>L-001</t>
+  </si>
+  <si>
+    <t>B-001</t>
+  </si>
+  <si>
+    <t>개인정보 수정</t>
+  </si>
+  <si>
+    <t>친구등록</t>
+  </si>
+  <si>
+    <t>B-002</t>
+  </si>
+  <si>
+    <t>정상인증</t>
+  </si>
+  <si>
+    <t>친구목록 조회</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>뱃지 조회</t>
+  </si>
+  <si>
+    <t>C-001</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>변경여부</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>가정사항</t>
+  </si>
+  <si>
+    <t>중요도*</t>
+  </si>
+  <si>
+    <t>변경이력</t>
+  </si>
+  <si>
+    <t>정상인증(C)</t>
+  </si>
+  <si>
+    <t>요구사항ID*</t>
+  </si>
+  <si>
+    <t>관련부서*</t>
+  </si>
+  <si>
+    <t>추가확인사항</t>
+  </si>
+  <si>
+    <t>요구사항명*</t>
+  </si>
+  <si>
+    <t>L-002</t>
+  </si>
+  <si>
+    <t>개발난이도</t>
+  </si>
+  <si>
+    <t>제약사항</t>
+  </si>
+  <si>
+    <t>고객검토의견</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>출처*</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>유형*</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>상태*</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>구분*</t>
+  </si>
+  <si>
+    <t>현행</t>
+  </si>
+  <si>
+    <t>구현부</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회원이 요청한 정상이미지를 확인할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 친구추가 되어있는 친구 목록을 볼 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 자신이 등록한 게시물을 조회 할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 아이디와 비밀번호를 통해 로그인 할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 내가 획득한 뱃지의 개수를 확인할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 메인화면에서 검색 버튼을 누르고 검색창이 열리면 산명을 입력하여 해당
+   되는 정보를 가져오도록 함
+ - 산을 검색시 산의 대표이미지 1개와 산의 이름 산의 추천이 뜨게함 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 인기모임 순위를 3개 조회
+   ㆍ대표이미지1개와 제목, 내용 
+   ㆍ더보기 버튼을 누르면 게시판조회로 이동
+ - 이달의 최고 등산러 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제목 및 모집인원 일자 설정함
+ - 지역 검색 - 페이지를 1/3, 2/3으로 나눠 왼쪽은 검색, 오른쪽은 지도를 표시함
+ - 게시글 작성 및 게시글 등록 함
+ - 자신이 등록한 게시글을 친구들에게 공유함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에만 수정이 가능하게 처리함 
+   ㆍ인증여부는 springSecurity사용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오른쪽 지도에 전국의 행정구역이 출력되며 지역을 마우스로 클릭하여 선택 
+    할 수 있고 지역을 선택시 지역에 해당하는 산의 list가 출력됨
+   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
+      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
+ - 출력시에 paging으로 10개씩 나누어 출력함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - list중 산을 선택하면 산에 대한 사진과 등산로가 출력되게 되며 산을 선택시
+    산 선택 input 태그에 등록됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 선택</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 선택</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 메인화면에서 검색 버튼을 누르고 검색창이 열리면 지역명을 선택하여 
+    검색하면 해당되는 정보를 가져오도록 함
+ - 지역을 검색시 해당 지역의 산의 대표이미지 1개와 산의 이름 산의 추천 
+    등산로 코스가 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제목 및 모집인원, 일자를 설정
+ - 산을 검색하여 정보를 등록하게 함
+   ㆍ지역 : 행정구역에 해당하는 지도를 표시한후 해당 구역에 마우스를 클릭
+                하면 색상이 변경되며 왼쪽 페이지에 해당 구역에 해당하는 산이 
+                표시되게 됨
+   ㆍ산 클릭시 산과 등산로 및 추천코스가 출력되게 되며 산에 위치에 마커로   
+      표시됨 [산이 클릭되면 선택 입력폼에 데이터가 등록 됨]
+   ㆍ지도는 GEOSERVER 를 통하여 표시함 
+ - 게시글 작성
+ - 게시글 등록 버튼을 누르면 게시판 조회 제일 상단에 추가
+ - 본인이 작성한 게시글에 대해서 친구들에게 공유함
+   ㆍ공유시 친구들에게 알람이 전송</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 게시물 조회는 10개씩 끊어서 무한스크롤을 구현하여 보여줌
  - 게시물 검색은 따로 넣지않음
  - 이미지는 슬라이드로 보여짐</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 참여할 모임을 조회할 수 있음 
-   ㆍ더보기를 통해서 10개의 목록을 잘라서 보여줌</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 참여했던 모임을 조회할 수 있음
-   ㆍ더보기를 통해서 10개의 목록을 잘라서 보여줌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 본인이 작성한 게시물과, 전체공개로 등록한 다른 회원의 게시물을 조회 
+    할 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 사진과 글을 등록함
  - 좋아요와 댓글을 등록할 수 있음
  - 공개 여부를 정할수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 참여할 모임을 조회할 수 있음 
+   ㆍ더보기를 통해서 10개의 목록을 잘라서 보여줌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 날짜가 다가오는 모임을  조회 할 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 참여했던 모임을 조회함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 개인정보를 변경할 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 참여했던 모임을 조회할 수 있음
+   ㆍ더보기를 통해서 10개의 목록을 잘라서 보여줌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 개인정보를 수정할 수 있으며 비밀번호를 변경시 기존 비밀번호 인증을 마친
    후에 가능</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시물과, 전체공개로 등록한 다른 회원의 게시물을 조회 할
-    수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사진은 최대 3장만 넣을 수 있음
+ - 좋아요는 한번 누르면 하트에 빨간색이 채워지고 두번 누르면 해제됨
+ - 댓글은 10개씩 페이징 처리함
+ - 전체공개, 친구에게만 공개, 비공개를 선택하여 등록하며 전체공개시 타 
+    회원도 게시물을 볼 수 있고, 친구에게만 공개는 친구추가가 되어있는 회원
+    에게만 게시물을 볼 수 있고, 비공개인 경우는 자신만 확인할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 친구조회는 10개로 페이징처리 됨
  - 친구이름,사진으로 조회
- - 검색가능 
- - 데이터가 많지 않아 datatable.js로 처리</t>
+ - 검색가능 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 통계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회원들이 많이 등산한 지역의 통계를 색깔의 그라데이션을 통하여 나타냄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 인기모임 순위는 조회수가 가장 많은 모임을 기준으로 1~3위의 순번을 
@@ -158,430 +491,11 @@
     게시판 조회로 이동하게 됨
  - 이달의 최고 등산러 조회는 이달기준으로 가장 뱃지가 많은 회원순으로 3명
     조회</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 친구요청 탭을 눌러 친구요청을 조회할 수 있음
-   ㆍdataTable.js를 사용하여 조회하며 목록은 10개씩 보여줌
- - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
-   ㆍ수락 버튼을 클릭시 친구목록 최상위에 추가 됨
-   ㆍ거절 버튼을 클릭시 친구요청이 거절 됨</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 우측 상단 알림 아이콘을 클릭하여 알림을 조회할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 친구요청 수락 목록을 조회 후 요청을 수락 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모집 게시판을 조회(페이징 적용하여 목록은 10개로 나누어 보여줌)
- - 대표이미지 1개와, 제목, 조회수를 표시</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 검색기능을 통해서 친구 등록을 할 수 있음
- - 검색조건은 이름, 아이디에 맞는 회원을 조회하며 동명이인인 경우 아이디
-    로 구분하여 조회됨
- - 조회된 회원의 오른쪽의 친구 등록 버튼을 눌러 친구 등록을 할 수 있으며
-    해당 회원이 수락할 경우 친구가 됨</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 정상인증탭 에서는 본인이 정상에서 찍은 명산의 비석을 업로드하면 관리
-    자가 파일을 확인 할 수 있게 되고 관리자가 파일을 확인 후 사진이 맞다면 
-    뱃지를 지급함
- - 정상인증 현황탭에서는 관리자가 파일을 확인후 처리여부를 확인할 수 
-    있습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 정상인증 페이지에서는 정상인증, 정상인증현황 2개의 탭으로 구성됨
- - 본인이 정상에서 찍은 명산의 비석과 자신의 사진을 업로드하면 관리자가 
-    확인 후에 뱃지를 지급 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 정상을 인증한 회원들의 요청을 확인하고 처리함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에는 수정이 가능함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에는 삭제가 가능함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로그아웃 버튼을 이용하여 로그아웃 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 로그아웃 버튼을 사용하여 로그아웃을 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 친구검색을 하여 친구등록 요청을 보낼 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 알림조회는 10개로 페이징처리 됨
- - 작성자, 제목이 조회됨</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시물인 경우에만 삭제가 가능하게 처리함 
-   ㆍ인증여부는 springSecurity사용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시물인 경우에만 수정이 가능하게 처리함 
-   ㆍ인증여부는 springSecurity사용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에만 삭제가 가능하게 처리함 
-   ㆍ인증여부는 springSecurity사용</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 프로필 이미지를 변경할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시물은 수정이 가능함</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시물은 삭제가 가능함</t>
-  </si>
-  <si>
-    <t>C-002</t>
-  </si>
-  <si>
-    <t>순위 조회</t>
-  </si>
-  <si>
-    <t>게시물 등록</t>
-  </si>
-  <si>
-    <t>프로필 수정</t>
-  </si>
-  <si>
-    <t>알람 조회</t>
-  </si>
-  <si>
-    <t>게시물 수정</t>
-  </si>
-  <si>
-    <t>게시물 조회</t>
-  </si>
-  <si>
-    <t>P-001</t>
-  </si>
-  <si>
-    <t>L-001</t>
-  </si>
-  <si>
-    <t>B-001</t>
-  </si>
-  <si>
-    <t>개인정보 수정</t>
-  </si>
-  <si>
-    <t>친구등록</t>
-  </si>
-  <si>
-    <t>B-002</t>
-  </si>
-  <si>
-    <t>정상인증</t>
-  </si>
-  <si>
-    <t>친구목록 조회</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>뱃지 조회</t>
-  </si>
-  <si>
-    <t>C-001</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>변경여부</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>가정사항</t>
-  </si>
-  <si>
-    <t>중요도*</t>
-  </si>
-  <si>
-    <t>변경이력</t>
-  </si>
-  <si>
-    <t>정상인증(C)</t>
-  </si>
-  <si>
-    <t>요구사항ID*</t>
-  </si>
-  <si>
-    <t>관련부서*</t>
-  </si>
-  <si>
-    <t>추가확인사항</t>
-  </si>
-  <si>
-    <t>요구사항명*</t>
-  </si>
-  <si>
-    <t>L-002</t>
-  </si>
-  <si>
-    <t>개발난이도</t>
-  </si>
-  <si>
-    <t>제약사항</t>
-  </si>
-  <si>
-    <t>고객검토의견</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 사진은 최대 3장만 넣을 수 있음
- - 좋아요는 한번 누르면 하트에 빨간색이 채워지고 두번 누르면 해제됨
- - 댓글은 10개씩 페이징 처리함
- - 전체공개, 친구에게만 공개, 비공개를 선택하여 등록하며 전체공개시 타 
-    회원도 게시물을 볼 수 있고, 친구에게만 공개는 친구추가가 되어있는 회원
-    에게만 게시물을 볼 수 있고, 비공개인 경우는 자신만 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>기능</t>
-  </si>
-  <si>
-    <t>출처*</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>유형*</t>
-  </si>
-  <si>
-    <t>구분</t>
-  </si>
-  <si>
-    <t>필수</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>상태*</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>구분*</t>
-  </si>
-  <si>
-    <t>현행</t>
-  </si>
-  <si>
-    <t>구현부</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 날짜가 다가오는 모임을  조회 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 회원이 요청한 정상이미지를 확인할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 친구추가 되어있는 친구 목록을 볼 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 자신이 등록한 게시물을 조회 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 아이디와 비밀번호를 통해 로그인 할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 내가 획득한 뱃지의 개수를 확인할 수 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 메인화면에서 검색 버튼을 누르고 검색창이 열리면 산명을 입력하여 해당
-   되는 정보를 가져오도록 함
- - 산을 검색시 산의 대표이미지 1개와 산의 이름 산의 추천이 뜨게함 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 현재 인기모임 순위를 3개 조회
-   ㆍ대표이미지1개와 제목, 내용 
-   ㆍ더보기 버튼을 누르면 게시판조회로 이동
- - 이달의 최고 등산러 조회</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제목 및 모집인원 일자 설정함
- - 지역 검색 - 페이지를 1/3, 2/3으로 나눠 왼쪽은 검색, 오른쪽은 지도를 표시함
- - 게시글 작성 및 게시글 등록 함
- - 자신이 등록한 게시글을 친구들에게 공유함</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 본인이 작성한 게시판인 경우에만 수정이 가능하게 처리함 
-   ㆍ인증여부는 springSecurity사용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 제목 및 모집인원, 일자를 설정
- - 산을 검색하여 정보를 등록하게 함
-   ㆍ지역 : 행정구역에 해당하는 지도를 표시한후 해당 구역에 마우스를 클릭하면 색상이 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     변경되며 왼쪽 페이지에 해당 구역에 해당하는 산이 표시되게 됨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㆍ산 클릭시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 산과 등산로 및 추천코스가 출력되게 되며 산에 위치에 마커로 표시됨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">    산이 클릭되면 선택 입력폼에 데이터가 등록 됨
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">ㆍ지도는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">kakao api </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 통하여 표시함 
- - 게시글 작성
- - 게시글 등록 버튼을 누르면 게시판 조회 제일 상단에 추가
- - 본인이 작성한 게시글에 대해서 친구들에게 공유함
-   ㆍ공유시 친구들에게 알람이 전송</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오른쪽 지도에 전국의 행정구역이 출력되며 지역을 마우스로 클릭하여 선택 
-    할 수 있고 지역을 선택시 지역에 해당하는 산의 list가 출력됨
-   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
-      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
- - 출력시에 paging으로 10개씩 나누어 출력함</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - list중 산을 선택하면 산에 대한 사진과 등산로가 출력되게 되며 산을 선택시
-    산 선택 input 태그에 등록됨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>산 선택</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 선택</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위 조회</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-001</t>
+    <t xml:space="preserve"> - GeoServer에서 WFS 데이터를 받아와 Feture정보를 받아 숫자가 큰순으로 
+    진하게 표시해서 보여줌</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -886,13 +800,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1056,9 +983,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1068,6 +992,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,19 +1019,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,39 +1533,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="64.77734375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="66.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="14"/>
-    <col min="15" max="15" width="11.44140625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="66.3984375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.8984375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.796875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.296875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="8.8984375" style="14"/>
+    <col min="15" max="15" width="11.3984375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="10.69921875" style="14" customWidth="1"/>
     <col min="17" max="17" width="20" style="16" customWidth="1"/>
     <col min="18" max="18" width="9" style="16" customWidth="1"/>
-    <col min="19" max="19" width="35.88671875" style="16" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" style="16" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="16" customWidth="1"/>
-    <col min="22" max="256" width="8.88671875" style="16"/>
+    <col min="19" max="19" width="35.8984375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="15.09765625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.09765625" style="16" customWidth="1"/>
+    <col min="22" max="256" width="8.8984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1649,12 +1585,12 @@
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="23" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T1" s="19"/>
       <c r="U1" s="24"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1677,102 +1613,102 @@
       <c r="T2" s="26"/>
       <c r="U2" s="29"/>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="L3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="31" t="s">
+      <c r="F4" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>91</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
@@ -1788,38 +1724,32 @@
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>3</v>
+    <row r="5" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>116</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>118</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J5" s="37"/>
-      <c r="K5" s="38" t="s">
-        <v>86</v>
-      </c>
+      <c r="K5" s="38"/>
       <c r="L5" s="44"/>
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
@@ -1834,33 +1764,37 @@
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" s="9" customFormat="1" ht="162" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>107</v>
+      <c r="D6" s="55" t="s">
+        <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="45"/>
@@ -1876,117 +1810,117 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>1</v>
+    <row r="7" spans="1:24" s="9" customFormat="1" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-    </row>
-    <row r="8" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>102</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+    </row>
+    <row r="9" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
@@ -2002,33 +1936,33 @@
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61"/>
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>95</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="45"/>
@@ -2044,35 +1978,33 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="59" t="s">
-        <v>64</v>
-      </c>
+    <row r="11" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45"/>
@@ -2088,33 +2020,35 @@
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="60"/>
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="63" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>105</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>104</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45"/>
@@ -2130,33 +2064,33 @@
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
-    <row r="13" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="60"/>
+    <row r="13" spans="1:24" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>47</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>113</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
@@ -2172,33 +2106,33 @@
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
-    <row r="14" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="61"/>
+    <row r="14" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="35" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45"/>
@@ -2214,37 +2148,33 @@
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>60</v>
-      </c>
+    <row r="15" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>103</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
@@ -2260,35 +2190,37 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:24" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="35" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45"/>
@@ -2304,37 +2236,35 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45"/>
@@ -2350,33 +2280,37 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
-      <c r="B18" s="60"/>
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="C18" s="35" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45"/>
@@ -2392,33 +2326,33 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="60"/>
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>2</v>
+      <c r="D19" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45"/>
@@ -2434,33 +2368,33 @@
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
-      <c r="B20" s="60"/>
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>111</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45"/>
@@ -2476,33 +2410,33 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="63"/>
-      <c r="B21" s="60"/>
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>110</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="J21" s="37"/>
       <c r="K21" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45"/>
@@ -2518,33 +2452,33 @@
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
     </row>
-    <row r="22" spans="1:24" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
-      <c r="B22" s="60"/>
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="37"/>
+        <v>79</v>
+      </c>
+      <c r="J22" s="46"/>
       <c r="K22" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45"/>
@@ -2560,75 +2494,75 @@
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
     </row>
-    <row r="23" spans="1:24" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="60"/>
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="35" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
       <c r="T23" s="46"/>
       <c r="U23" s="47"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="63"/>
-      <c r="B24" s="60"/>
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>36</v>
+        <v>80</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>114</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
@@ -2644,33 +2578,33 @@
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="60"/>
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="35" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
@@ -2686,33 +2620,33 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
-      <c r="B26" s="61"/>
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="35" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
@@ -2728,81 +2662,79 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A27" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>69</v>
-      </c>
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
       <c r="T27" s="46"/>
       <c r="U27" s="47"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="59" t="s">
-        <v>52</v>
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45"/>
@@ -2818,70 +2750,93 @@
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54"/>
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="47"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="50"/>
+      <c r="K30" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+    </row>
+    <row r="31" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
@@ -2902,7 +2857,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
@@ -2923,7 +2878,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
@@ -2944,7 +2899,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
@@ -2965,7 +2920,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
@@ -2986,7 +2941,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
@@ -3007,7 +2962,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
@@ -3028,10 +2983,10 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
@@ -3049,7 +3004,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3070,7 +3025,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3091,7 +3046,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3112,7 +3067,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3133,7 +3088,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3154,7 +3109,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3175,7 +3130,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3196,7 +3151,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3217,7 +3172,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3238,7 +3193,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3259,7 +3214,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3280,7 +3235,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3301,7 +3256,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3322,7 +3277,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3343,7 +3298,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3364,7 +3319,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3385,7 +3340,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3406,7 +3361,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3427,7 +3382,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3448,7 +3403,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3469,7 +3424,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3490,7 +3445,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3511,7 +3466,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3532,7 +3487,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3553,7 +3508,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3574,7 +3529,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3595,7 +3550,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3616,7 +3571,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3637,7 +3592,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3658,7 +3613,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3679,7 +3634,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3700,7 +3655,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3721,7 +3676,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3742,7 +3697,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3763,7 +3718,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3784,7 +3739,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3805,7 +3760,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3826,7 +3781,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3847,7 +3802,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3868,23 +3823,28 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="H78" s="13"/>
-      <c r="J78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-    </row>
-    <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+    </row>
+    <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3900,7 +3860,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3916,7 +3876,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3932,7 +3892,7 @@
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3948,7 +3908,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3964,7 +3924,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3980,7 +3940,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3996,7 +3956,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4012,7 +3972,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4028,7 +3988,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4044,7 +4004,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4060,7 +4020,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4076,7 +4036,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4092,7 +4052,7 @@
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4108,7 +4068,7 @@
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4124,7 +4084,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4140,7 +4100,7 @@
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4156,7 +4116,7 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4172,7 +4132,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4188,35 +4148,51 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
+    <row r="98" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="H98" s="13"/>
+      <c r="J98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:U3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A5:A14"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"식별,정의.협의중,정의.확정요청,정의.확정,정의.변경요청,정의.변경,제외"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"필수,조건,선택"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"현행,개선,신규"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Web,Mgr,Agt,Web/Mgr/Agt,Web/Mgr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K29" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K30" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"기능,인터페이스,적합,안전,보안및기밀,운용환경,컴퓨터자원,운용요원,교육훈련,운영유지지원,패키징,기타"</formula1>
     </dataValidation>
   </dataValidations>
